--- a/Exp_Pop_Growth.xlsx
+++ b/Exp_Pop_Growth.xlsx
@@ -5,43 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malooney/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malooney/Documents/malooney.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4CA69-0752-4944-AEB2-3484B38D6C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A5FF3-580E-9C49-8E34-18732B05FB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="460" windowWidth="25420" windowHeight="20540" xr2:uid="{6907FAAF-8228-9D4B-A1F1-272306814A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$10:$B$34</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$10:$C$34</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$10:$B$34</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$10:$C$34</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$10:$B$34</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$10:$C$34</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$10:$C$34</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$10:$B$34</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$10:$C$34</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$10:$B$34</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$10:$C$34</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$10:$B$34</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$9</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -258,7 +232,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -375,7 +361,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -476,6 +474,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="40383855"/>
         <c:axId val="16211295"/>
@@ -761,14 +760,32 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -869,6 +886,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="88218143"/>
         <c:axId val="88219775"/>
@@ -2551,7 +2569,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
